--- a/수집데이터 List.xlsx
+++ b/수집데이터 List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\World\Study\남부기술교육원\Hadoop\Project\데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\데이터\1. 수집원본데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2518B699-0EE2-409F-AF10-D1B5C7A8F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="12195"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유동인구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인구수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,22 +107,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차량통행량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통행차량수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관심지점좌표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시_행정동_생활인구_202304</t>
+  </si>
+  <si>
+    <t>서울특별시 행정동별 친환경자동차 현황(15~22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23년2월 기준 서울시 행정동별 연료별 등록현황</t>
+  </si>
+  <si>
+    <t>csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공데이터포털</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 전기차 충전소                                   정보 한국전력공사_전기차충전소위경도_20221205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csv        xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울열린데이터광장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POI개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 충전소까지의 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일교통량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrafficVolume(LINK).shp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View-T(국토교통부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">총 인구 수(전체)-(격자) 500M_서울특별시 강남구_202304.shp등 500M 격자 25개, 250M 격자 25개                                                        주민등록인구_20230612210609             </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">shape      -            xlsx          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국토정보플랫폼                                공공데이터포털</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 대규모점포 인허가 정보                                                    서울시 문화시설 현황                                                                  서울시 병원 인허가 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,6 +295,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,11 +587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,14 +599,16 @@
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.875" customWidth="1"/>
+    <col min="7" max="7" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,8 +630,11 @@
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -545,12 +644,18 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -558,44 +663,56 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -603,60 +720,140 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
+    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>